--- a/biology/Botanique/Mayepea_guianensis/Mayepea_guianensis.xlsx
+++ b/biology/Botanique/Mayepea_guianensis/Mayepea_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mayepea guianensis est une espèce néotropical d'arbre, appartenant à la famille des Oleaceae (familles de l'olivier).
 Il s'agit de l'espèce type du genre Mayepea Aubl.. 
@@ -512,11 +524,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mayepea guianensis n'est connu de manière certaine que de la collecte type supposée provenir de la montagne de Kaw (Guyane)[2], et n'a jamais été retrouvé par la suite.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mayepea guianensis n'est connu de manière certaine que de la collecte type supposée provenir de la montagne de Kaw (Guyane), et n'a jamais été retrouvé par la suite.
 Aublet est généralement fiable quant à la provenance de ses collectes, et il pourrait s'agir d'une espèce endémique rare, très isolée, et jamais retrouvée. 
-Cependant, l'absence de données de Chionanthus en Amazonie orientale laisse suspecter une erreur d'étiquetage : la collecte d'Aublet pourrait par exemple avoir été effectuée en Haïti lors de son séjour de quelques mois en 1764-65 au retour de Guyane (7 espèces du genre existent sur Hispaniola[3]). 
+Cependant, l'absence de données de Chionanthus en Amazonie orientale laisse suspecter une erreur d'étiquetage : la collecte d'Aublet pourrait par exemple avoir été effectuée en Haïti lors de son séjour de quelques mois en 1764-65 au retour de Guyane (7 espèces du genre existent sur Hispaniola). 
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « MAYEPEA Guianenſis. (Tabula 31.)
@@ -563,7 +579,7 @@
 J'ai trouvé cet arbre dans les forêts de Caux.
 Le mayepe étoit en fleur dans le mois de Février.
 Le fruit eſt repréſente dans ſon état naturel. On a ſeulement groſſi toutes les parties de la fleur. »
-— Fusée-Aublet, 1775[4]</t>
+— Fusée-Aublet, 1775</t>
         </is>
       </c>
     </row>
